--- a/All Videos Analysis.xlsx
+++ b/All Videos Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research\Periodic Video Detection\IEEE Computer Magazine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehdipou\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E979B4-CCC6-409D-B9D0-EEA1F823F189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E576041-514D-43A5-BA52-B63CB5D43D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{51AECDA4-0A25-4219-8DA3-942EFE850D0D}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{51AECDA4-0A25-4219-8DA3-942EFE850D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>v_3d</t>
   </si>
@@ -114,15 +114,6 @@
     <t>v_15</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>mid</t>
-  </si>
-  <si>
-    <t>higher</t>
-  </si>
-  <si>
     <t>v_pizza</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
   </si>
   <si>
     <t>Histogram-FFT</t>
-  </si>
-  <si>
-    <t>PCC-Cepstrum</t>
   </si>
   <si>
     <t>At 20%</t>
@@ -411,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,40 +446,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,62 +468,16 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -586,13 +498,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -604,15 +516,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,6 +560,33 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1398,7 +1328,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1406,6 +1335,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2414,1283 +2344,870 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FB4483-C5B5-4B7D-83C9-BD503B0A3D31}">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+      <selection activeCell="K2" sqref="K2:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="5" style="17" customWidth="1"/>
     <col min="3" max="3" width="5" style="15" customWidth="1"/>
-    <col min="4" max="6" width="5.54296875" style="19" customWidth="1"/>
-    <col min="7" max="9" width="5.54296875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="9" style="19" customWidth="1"/>
+    <col min="4" max="6" width="5.5703125" style="17" customWidth="1"/>
+    <col min="7" max="9" width="5.5703125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="9" style="17" customWidth="1"/>
     <col min="13" max="13" width="9" style="15" customWidth="1"/>
-    <col min="14" max="17" width="8.7265625" style="15"/>
-    <col min="18" max="18" width="1.453125" style="15" customWidth="1"/>
-    <col min="19" max="21" width="8.7265625" style="15"/>
-    <col min="22" max="16384" width="8.7265625" style="19"/>
+    <col min="14" max="17" width="8.7109375" style="15"/>
+    <col min="18" max="18" width="1.42578125" style="15" customWidth="1"/>
+    <col min="19" max="21" width="8.7109375" style="15"/>
+    <col min="22" max="16384" width="8.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="51" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+    </row>
+    <row r="3" spans="1:21" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="37" t="s">
+      <c r="G3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="O2" s="34" t="s">
+      <c r="I3" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="51">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28">
+        <v>53</v>
+      </c>
+      <c r="D4" s="49">
+        <v>53.857999999999997</v>
+      </c>
+      <c r="E4" s="46">
+        <v>53.857999999999997</v>
+      </c>
+      <c r="F4" s="46">
+        <v>53.857999999999997</v>
+      </c>
+      <c r="G4" s="46">
+        <v>53.857999999999997</v>
+      </c>
+      <c r="H4" s="46">
+        <v>53.857999999999997</v>
+      </c>
+      <c r="I4" s="47">
+        <v>53.857999999999997</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="52">
+        <v>2</v>
+      </c>
+      <c r="C5" s="26">
+        <v>91</v>
+      </c>
+      <c r="D5" s="37">
+        <v>91.334999999999994</v>
+      </c>
+      <c r="E5" s="38">
+        <v>91.334999999999994</v>
+      </c>
+      <c r="F5" s="38">
+        <v>91.334999999999994</v>
+      </c>
+      <c r="G5" s="38">
+        <v>91.334999999999994</v>
+      </c>
+      <c r="H5" s="38">
+        <v>91.334999999999994</v>
+      </c>
+      <c r="I5" s="39">
+        <v>91.35</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="52">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26">
+        <v>51</v>
+      </c>
+      <c r="D6" s="37">
+        <v>51.201000000000001</v>
+      </c>
+      <c r="E6" s="38">
+        <v>51.201000000000001</v>
+      </c>
+      <c r="F6" s="36">
+        <v>128.00200000000001</v>
+      </c>
+      <c r="G6" s="38">
+        <v>51.201000000000001</v>
+      </c>
+      <c r="H6" s="38">
+        <v>51.201000000000001</v>
+      </c>
+      <c r="I6" s="39">
+        <v>51.201000000000001</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="52">
+        <v>4</v>
+      </c>
+      <c r="C7" s="26">
+        <v>49</v>
+      </c>
+      <c r="D7" s="41">
+        <v>21.715</v>
+      </c>
+      <c r="E7" s="36">
+        <v>21.715</v>
+      </c>
+      <c r="F7" s="36">
+        <v>21.715</v>
+      </c>
+      <c r="G7" s="38">
+        <v>50.668999999999997</v>
+      </c>
+      <c r="H7" s="36">
+        <v>21.715</v>
+      </c>
+      <c r="I7" s="39">
+        <v>50.668999999999997</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="52">
+        <v>5</v>
+      </c>
+      <c r="C8" s="26">
+        <v>79</v>
+      </c>
+      <c r="D8" s="37">
+        <v>78.501000000000005</v>
+      </c>
+      <c r="E8" s="38">
+        <v>78.501000000000005</v>
+      </c>
+      <c r="F8" s="38">
+        <v>78.501000000000005</v>
+      </c>
+      <c r="G8" s="36">
+        <v>104.66800000000001</v>
+      </c>
+      <c r="H8" s="36">
+        <v>104.66800000000001</v>
+      </c>
+      <c r="I8" s="40">
+        <v>157.00200000000001</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="52">
         <v>6</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="36"/>
-      <c r="S2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="36"/>
-    </row>
-    <row r="3" spans="1:21" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="29" t="s">
+      <c r="C9" s="26">
+        <v>11</v>
+      </c>
+      <c r="D9" s="41">
+        <v>152.00700000000001</v>
+      </c>
+      <c r="E9" s="36">
+        <v>152.00700000000001</v>
+      </c>
+      <c r="F9" s="36">
+        <v>152.00700000000001</v>
+      </c>
+      <c r="G9" s="38">
+        <v>10.858000000000001</v>
+      </c>
+      <c r="H9" s="38">
+        <v>10.858000000000001</v>
+      </c>
+      <c r="I9" s="39">
+        <v>10.858000000000001</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="52">
+        <v>7</v>
+      </c>
+      <c r="C10" s="26">
+        <v>100</v>
+      </c>
+      <c r="D10" s="41">
+        <v>50.1</v>
+      </c>
+      <c r="E10" s="36">
+        <v>50.1</v>
+      </c>
+      <c r="F10" s="36">
+        <v>50.1</v>
+      </c>
+      <c r="G10" s="36">
+        <v>25.05</v>
+      </c>
+      <c r="H10" s="36">
+        <v>25.05</v>
+      </c>
+      <c r="I10" s="40">
+        <v>25.05</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="52">
+        <v>8</v>
+      </c>
+      <c r="C11" s="26">
+        <v>58</v>
+      </c>
+      <c r="D11" s="41">
+        <v>47.500999999999998</v>
+      </c>
+      <c r="E11" s="38">
+        <v>57.000999999999998</v>
+      </c>
+      <c r="F11" s="36">
+        <v>47.500999999999998</v>
+      </c>
+      <c r="G11" s="38">
+        <v>57.000999999999998</v>
+      </c>
+      <c r="H11" s="38">
+        <v>57.000999999999998</v>
+      </c>
+      <c r="I11" s="39">
+        <v>57.000999999999998</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="52">
+        <v>9</v>
+      </c>
+      <c r="C12" s="26">
+        <v>90</v>
+      </c>
+      <c r="D12" s="37">
+        <v>90.111000000000004</v>
+      </c>
+      <c r="E12" s="38">
+        <v>90.111000000000004</v>
+      </c>
+      <c r="F12" s="38">
+        <v>90.111000000000004</v>
+      </c>
+      <c r="G12" s="38">
+        <v>90.111000000000004</v>
+      </c>
+      <c r="H12" s="38">
+        <v>90.111000000000004</v>
+      </c>
+      <c r="I12" s="39">
+        <v>91.111000000000004</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="52">
+        <v>10</v>
+      </c>
+      <c r="C13" s="26">
+        <v>38</v>
+      </c>
+      <c r="D13" s="41">
+        <v>18.876000000000001</v>
+      </c>
+      <c r="E13" s="36">
+        <v>18.876000000000001</v>
+      </c>
+      <c r="F13" s="36">
+        <v>18.876000000000001</v>
+      </c>
+      <c r="G13" s="36">
+        <v>18.876000000000001</v>
+      </c>
+      <c r="H13" s="36">
+        <v>18.876000000000001</v>
+      </c>
+      <c r="I13" s="39">
+        <v>37.752000000000002</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="52">
+        <v>11</v>
+      </c>
+      <c r="C14" s="26">
+        <v>53</v>
+      </c>
+      <c r="D14" s="37">
+        <v>50.110999999999997</v>
+      </c>
+      <c r="E14" s="36">
+        <v>26.53</v>
+      </c>
+      <c r="F14" s="38">
+        <v>50.110999999999997</v>
+      </c>
+      <c r="G14" s="36">
+        <v>26.53</v>
+      </c>
+      <c r="H14" s="36">
+        <v>26.53</v>
+      </c>
+      <c r="I14" s="39">
+        <v>50.110999999999997</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="52">
+        <v>12</v>
+      </c>
+      <c r="C15" s="26">
+        <v>120</v>
+      </c>
+      <c r="D15" s="37">
+        <v>120.2</v>
+      </c>
+      <c r="E15" s="38">
+        <v>120.2</v>
+      </c>
+      <c r="F15" s="38">
+        <v>120.2</v>
+      </c>
+      <c r="G15" s="38">
+        <v>120.2</v>
+      </c>
+      <c r="H15" s="38">
+        <v>120.2</v>
+      </c>
+      <c r="I15" s="39">
+        <v>120.2</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="52">
+        <v>13</v>
+      </c>
+      <c r="C16" s="26">
+        <v>38</v>
+      </c>
+      <c r="D16" s="37">
+        <v>38.25</v>
+      </c>
+      <c r="E16" s="38">
+        <v>38.25</v>
+      </c>
+      <c r="F16" s="38">
+        <v>38.25</v>
+      </c>
+      <c r="G16" s="38">
+        <v>38.25</v>
+      </c>
+      <c r="H16" s="38">
+        <v>38.25</v>
+      </c>
+      <c r="I16" s="39">
+        <v>38.25</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="52">
+        <v>14</v>
+      </c>
+      <c r="C17" s="26">
+        <v>65</v>
+      </c>
+      <c r="D17" s="41">
+        <v>32.75</v>
+      </c>
+      <c r="E17" s="38">
+        <v>65.5</v>
+      </c>
+      <c r="F17" s="38">
+        <v>65.5</v>
+      </c>
+      <c r="G17" s="36">
+        <v>32.75</v>
+      </c>
+      <c r="H17" s="38">
+        <v>65.5</v>
+      </c>
+      <c r="I17" s="39">
+        <v>65.5</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="52">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26">
+        <v>83</v>
+      </c>
+      <c r="D18" s="41">
+        <v>69.5</v>
+      </c>
+      <c r="E18" s="38">
+        <v>83.4</v>
+      </c>
+      <c r="F18" s="38">
+        <v>83.4</v>
+      </c>
+      <c r="G18" s="38">
+        <v>83.4</v>
+      </c>
+      <c r="H18" s="38">
+        <v>83.4</v>
+      </c>
+      <c r="I18" s="40">
+        <v>69.5</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="52">
+        <v>16</v>
+      </c>
+      <c r="C19" s="26">
+        <v>40</v>
+      </c>
+      <c r="D19" s="37">
+        <v>40.201000000000001</v>
+      </c>
+      <c r="E19" s="38">
+        <v>40.201000000000001</v>
+      </c>
+      <c r="F19" s="38">
+        <v>40.201000000000001</v>
+      </c>
+      <c r="G19" s="38">
+        <v>40.201000000000001</v>
+      </c>
+      <c r="H19" s="38">
+        <v>40.201000000000001</v>
+      </c>
+      <c r="I19" s="39">
+        <v>40.201000000000001</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="52">
+        <v>17</v>
+      </c>
+      <c r="C20" s="26">
         <v>35</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="29" t="s">
+      <c r="D20" s="37">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E20" s="38">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F20" s="38">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G20" s="38">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H20" s="38">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I20" s="40">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="52">
+        <v>18</v>
+      </c>
+      <c r="C21" s="26">
         <v>33</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="D21" s="41">
+        <v>20.067</v>
+      </c>
+      <c r="E21" s="36">
+        <v>60.201000000000001</v>
+      </c>
+      <c r="F21" s="36">
+        <v>20.067</v>
+      </c>
+      <c r="G21" s="38">
+        <v>33.445</v>
+      </c>
+      <c r="H21" s="38">
+        <v>33.445</v>
+      </c>
+      <c r="I21" s="40">
+        <v>16.722000000000001</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="52">
+        <v>19</v>
+      </c>
+      <c r="C22" s="26">
+        <v>53</v>
+      </c>
+      <c r="D22" s="41">
+        <v>529.00199999999995</v>
+      </c>
+      <c r="E22" s="38">
+        <v>52.9</v>
+      </c>
+      <c r="F22" s="36">
+        <v>529.00199999999995</v>
+      </c>
+      <c r="G22" s="38">
+        <v>52.9</v>
+      </c>
+      <c r="H22" s="38">
+        <v>52.9</v>
+      </c>
+      <c r="I22" s="39">
+        <v>52.9</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="B23" s="53">
         <v>20</v>
       </c>
-      <c r="B4" s="80">
-        <v>1</v>
-      </c>
-      <c r="C4" s="54">
-        <v>53</v>
-      </c>
-      <c r="D4" s="78">
-        <v>53.857999999999997</v>
-      </c>
-      <c r="E4" s="75">
-        <v>53.857999999999997</v>
-      </c>
-      <c r="F4" s="75">
-        <v>53.857999999999997</v>
-      </c>
-      <c r="G4" s="75">
-        <v>53.857999999999997</v>
-      </c>
-      <c r="H4" s="75">
-        <v>53.857999999999997</v>
-      </c>
-      <c r="I4" s="76">
-        <v>53.857999999999997</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46">
-        <v>322</v>
-      </c>
-      <c r="L4" s="46">
-        <v>188</v>
-      </c>
-      <c r="M4" s="46">
-        <v>3</v>
-      </c>
-      <c r="N4" s="18">
-        <v>53</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="20">
-        <v>53.857999999999997</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>372</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T4" s="20">
-        <v>53.857999999999997</v>
-      </c>
-      <c r="U4" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="81">
-        <v>2</v>
-      </c>
-      <c r="C5" s="49">
-        <v>91</v>
-      </c>
-      <c r="D5" s="63">
-        <v>91.334999999999994</v>
-      </c>
-      <c r="E5" s="64">
-        <v>91.334999999999994</v>
-      </c>
-      <c r="F5" s="64">
-        <v>91.334999999999994</v>
-      </c>
-      <c r="G5" s="64">
-        <v>91.334999999999994</v>
-      </c>
-      <c r="H5" s="64">
-        <v>91.334999999999994</v>
-      </c>
-      <c r="I5" s="65">
-        <v>91.35</v>
-      </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46">
-        <v>3</v>
-      </c>
-      <c r="L5" s="46">
-        <v>3</v>
-      </c>
-      <c r="M5" s="46">
-        <v>3</v>
-      </c>
-      <c r="N5" s="18">
-        <v>91</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="20">
-        <v>91.334999999999994</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>4</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T5" s="20">
-        <v>91.355000000000004</v>
-      </c>
-      <c r="U5" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="81">
-        <v>3</v>
-      </c>
-      <c r="C6" s="49">
-        <v>51</v>
-      </c>
-      <c r="D6" s="63">
-        <v>51.201000000000001</v>
-      </c>
-      <c r="E6" s="64">
-        <v>51.201000000000001</v>
-      </c>
-      <c r="F6" s="62">
-        <v>128.00200000000001</v>
-      </c>
-      <c r="G6" s="64">
-        <v>51.201000000000001</v>
-      </c>
-      <c r="H6" s="64">
-        <v>51.201000000000001</v>
-      </c>
-      <c r="I6" s="65">
-        <v>51.201000000000001</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46">
-        <v>3</v>
-      </c>
-      <c r="L6" s="46">
-        <v>251</v>
-      </c>
-      <c r="M6" s="46">
-        <v>3</v>
-      </c>
-      <c r="N6" s="18">
-        <v>51</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="20">
-        <v>51.201000000000001</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>3</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="20">
-        <v>51.201000000000001</v>
-      </c>
-      <c r="U6" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="81">
-        <v>4</v>
-      </c>
-      <c r="C7" s="49">
-        <v>49</v>
-      </c>
-      <c r="D7" s="67">
-        <v>21.715</v>
-      </c>
-      <c r="E7" s="62">
-        <v>21.715</v>
-      </c>
-      <c r="F7" s="62">
-        <v>21.715</v>
-      </c>
-      <c r="G7" s="64">
-        <v>50.668999999999997</v>
-      </c>
-      <c r="H7" s="62">
-        <v>21.715</v>
-      </c>
-      <c r="I7" s="65">
-        <v>50.668999999999997</v>
-      </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46">
-        <v>3</v>
-      </c>
-      <c r="L7" s="46">
-        <v>20</v>
-      </c>
-      <c r="M7" s="47">
-        <v>47</v>
-      </c>
-      <c r="N7" s="18">
-        <v>48</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" s="20">
-        <v>50.668999999999997</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>3</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="20">
-        <v>50.668999999999997</v>
-      </c>
-      <c r="U7" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="81">
-        <v>5</v>
-      </c>
-      <c r="C8" s="49">
-        <v>79</v>
-      </c>
-      <c r="D8" s="63">
-        <v>78.501000000000005</v>
-      </c>
-      <c r="E8" s="64">
-        <v>78.501000000000005</v>
-      </c>
-      <c r="F8" s="64">
-        <v>78.501000000000005</v>
-      </c>
-      <c r="G8" s="62">
-        <v>104.66800000000001</v>
-      </c>
-      <c r="H8" s="62">
-        <v>104.66800000000001</v>
-      </c>
-      <c r="I8" s="66">
-        <v>157.00200000000001</v>
-      </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46">
-        <v>3</v>
-      </c>
-      <c r="L8" s="46">
-        <v>3</v>
-      </c>
-      <c r="M8" s="46">
-        <v>3</v>
-      </c>
-      <c r="N8" s="18">
-        <v>86</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="21">
-        <v>78.501000000000005</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>3</v>
-      </c>
-      <c r="S8" s="16">
-        <v>58</v>
-      </c>
-      <c r="T8" s="15">
-        <v>104.66800000000001</v>
-      </c>
-      <c r="U8" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="81">
-        <v>6</v>
-      </c>
-      <c r="C9" s="49">
-        <v>11</v>
-      </c>
-      <c r="D9" s="67">
-        <v>152.00700000000001</v>
-      </c>
-      <c r="E9" s="62">
-        <v>152.00700000000001</v>
-      </c>
-      <c r="F9" s="62">
-        <v>152.00700000000001</v>
-      </c>
-      <c r="G9" s="64">
-        <v>10.858000000000001</v>
-      </c>
-      <c r="H9" s="64">
-        <v>10.858000000000001</v>
-      </c>
-      <c r="I9" s="65">
-        <v>10.858000000000001</v>
-      </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46">
-        <v>140</v>
-      </c>
-      <c r="L9" s="46">
-        <v>140</v>
-      </c>
-      <c r="M9" s="46">
-        <v>140</v>
-      </c>
-      <c r="N9" s="18">
-        <v>11</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>4</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T9" s="20">
-        <v>11.148</v>
-      </c>
-      <c r="U9" s="22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="81">
-        <v>7</v>
-      </c>
-      <c r="C10" s="49">
-        <v>100</v>
-      </c>
-      <c r="D10" s="68">
-        <v>50.1</v>
-      </c>
-      <c r="E10" s="69">
-        <v>50.1</v>
-      </c>
-      <c r="F10" s="69">
-        <v>50.1</v>
-      </c>
-      <c r="G10" s="62">
-        <v>25.05</v>
-      </c>
-      <c r="H10" s="62">
-        <v>25.05</v>
-      </c>
-      <c r="I10" s="66">
-        <v>25.05</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47">
-        <v>100</v>
-      </c>
-      <c r="L10" s="47">
-        <v>100</v>
-      </c>
-      <c r="M10" s="47">
-        <v>100</v>
-      </c>
-      <c r="N10" s="18">
-        <v>100</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="15">
-        <v>50.1</v>
-      </c>
-      <c r="Q10" s="22">
-        <v>100</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T10" s="15">
-        <v>25.05</v>
-      </c>
-      <c r="U10" s="22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="81">
-        <v>8</v>
-      </c>
-      <c r="C11" s="49">
-        <v>58</v>
-      </c>
-      <c r="D11" s="67">
-        <v>47.500999999999998</v>
-      </c>
-      <c r="E11" s="64">
-        <v>57.000999999999998</v>
-      </c>
-      <c r="F11" s="62">
-        <v>47.500999999999998</v>
-      </c>
-      <c r="G11" s="64">
-        <v>57.000999999999998</v>
-      </c>
-      <c r="H11" s="64">
-        <v>57.000999999999998</v>
-      </c>
-      <c r="I11" s="65">
-        <v>57.000999999999998</v>
-      </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46">
-        <v>3</v>
-      </c>
-      <c r="L11" s="46">
-        <v>107</v>
-      </c>
-      <c r="M11" s="46">
-        <v>3</v>
-      </c>
-      <c r="N11" s="18">
-        <v>62</v>
-      </c>
-      <c r="O11" s="16">
-        <v>593</v>
-      </c>
-      <c r="P11" s="21">
-        <v>57.000999999999998</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>4</v>
-      </c>
-      <c r="S11" s="16">
-        <v>531</v>
-      </c>
-      <c r="T11" s="21">
-        <v>57.000999999999998</v>
-      </c>
-      <c r="U11" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="81">
-        <v>9</v>
-      </c>
-      <c r="C12" s="49">
-        <v>90</v>
-      </c>
-      <c r="D12" s="63">
-        <v>90.111000000000004</v>
-      </c>
-      <c r="E12" s="64">
-        <v>90.111000000000004</v>
-      </c>
-      <c r="F12" s="64">
-        <v>90.111000000000004</v>
-      </c>
-      <c r="G12" s="64">
-        <v>90.111000000000004</v>
-      </c>
-      <c r="H12" s="64">
-        <v>90.111000000000004</v>
-      </c>
-      <c r="I12" s="65">
-        <v>91.111000000000004</v>
-      </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46">
-        <v>720</v>
-      </c>
-      <c r="L12" s="47">
-        <v>90</v>
-      </c>
-      <c r="M12" s="46">
-        <v>270</v>
-      </c>
-      <c r="N12" s="18">
-        <v>90</v>
-      </c>
-      <c r="O12" s="23">
-        <v>89</v>
-      </c>
-      <c r="P12" s="20">
-        <v>90.111000000000004</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>554</v>
-      </c>
-      <c r="S12" s="16">
-        <v>106.8</v>
-      </c>
-      <c r="T12" s="20">
-        <v>90.111000000000004</v>
-      </c>
-      <c r="U12" s="22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="81">
-        <v>10</v>
-      </c>
-      <c r="C13" s="49">
-        <v>38</v>
-      </c>
-      <c r="D13" s="67">
-        <v>18.876000000000001</v>
-      </c>
-      <c r="E13" s="62">
-        <v>18.876000000000001</v>
-      </c>
-      <c r="F13" s="62">
-        <v>18.876000000000001</v>
-      </c>
-      <c r="G13" s="62">
-        <v>18.876000000000001</v>
-      </c>
-      <c r="H13" s="62">
-        <v>18.876000000000001</v>
-      </c>
-      <c r="I13" s="65">
-        <v>37.752000000000002</v>
-      </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47">
-        <v>75</v>
-      </c>
-      <c r="L13" s="47">
-        <v>75</v>
-      </c>
-      <c r="M13" s="46">
-        <v>3</v>
-      </c>
-      <c r="N13" s="18">
-        <v>75</v>
-      </c>
-      <c r="O13" s="16">
-        <v>19</v>
-      </c>
-      <c r="P13" s="15">
-        <v>18.876000000000001</v>
-      </c>
-      <c r="Q13" s="22">
-        <v>75</v>
-      </c>
-      <c r="S13" s="16">
-        <v>22.8</v>
-      </c>
-      <c r="T13" s="15">
-        <v>18.876000000000001</v>
-      </c>
-      <c r="U13" s="22">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="81">
-        <v>11</v>
-      </c>
-      <c r="C14" s="49">
-        <v>53</v>
-      </c>
-      <c r="D14" s="63">
-        <v>50.110999999999997</v>
-      </c>
-      <c r="E14" s="62">
-        <v>26.53</v>
-      </c>
-      <c r="F14" s="64">
-        <v>50.110999999999997</v>
-      </c>
-      <c r="G14" s="62">
-        <v>26.53</v>
-      </c>
-      <c r="H14" s="62">
-        <v>26.53</v>
-      </c>
-      <c r="I14" s="65">
-        <v>50.110999999999997</v>
-      </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46">
-        <v>3</v>
-      </c>
-      <c r="L14" s="46">
-        <v>3</v>
-      </c>
-      <c r="M14" s="46">
-        <v>3</v>
-      </c>
-      <c r="N14" s="18">
-        <v>53</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="21">
-        <v>50.110999999999997</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>3</v>
-      </c>
-      <c r="S14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T14" s="21">
-        <v>50.110999999999997</v>
-      </c>
-      <c r="U14" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="81">
-        <v>12</v>
-      </c>
-      <c r="C15" s="49">
-        <v>120</v>
-      </c>
-      <c r="D15" s="63">
-        <v>120.2</v>
-      </c>
-      <c r="E15" s="64">
-        <v>120.2</v>
-      </c>
-      <c r="F15" s="64">
-        <v>120.2</v>
-      </c>
-      <c r="G15" s="64">
-        <v>120.2</v>
-      </c>
-      <c r="H15" s="64">
-        <v>120.2</v>
-      </c>
-      <c r="I15" s="65">
-        <v>120.2</v>
-      </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47">
-        <v>120</v>
-      </c>
-      <c r="L15" s="46">
-        <v>240</v>
-      </c>
-      <c r="M15" s="46">
-        <v>240</v>
-      </c>
-      <c r="N15" s="18">
-        <v>120</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" s="20">
-        <v>120.2</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>475</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T15" s="20">
-        <v>120.2</v>
-      </c>
-      <c r="U15" s="22">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="81">
-        <v>13</v>
-      </c>
-      <c r="C16" s="49">
-        <v>38</v>
-      </c>
-      <c r="D16" s="63">
-        <v>38.25</v>
-      </c>
-      <c r="E16" s="64">
-        <v>38.25</v>
-      </c>
-      <c r="F16" s="64">
-        <v>38.25</v>
-      </c>
-      <c r="G16" s="64">
-        <v>38.25</v>
-      </c>
-      <c r="H16" s="64">
-        <v>38.25</v>
-      </c>
-      <c r="I16" s="65">
-        <v>38.25</v>
-      </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46">
-        <v>76</v>
-      </c>
-      <c r="L16" s="46">
-        <v>267</v>
-      </c>
-      <c r="M16" s="47">
-        <v>38</v>
-      </c>
-      <c r="N16" s="18">
-        <v>38</v>
-      </c>
-      <c r="O16" s="16"/>
-      <c r="Q16" s="17"/>
-      <c r="S16" s="16"/>
-      <c r="U16" s="17"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="81">
-        <v>14</v>
-      </c>
-      <c r="C17" s="49">
-        <v>65</v>
-      </c>
-      <c r="D17" s="67">
-        <v>32.75</v>
-      </c>
-      <c r="E17" s="64">
-        <v>65.5</v>
-      </c>
-      <c r="F17" s="64">
-        <v>65.5</v>
-      </c>
-      <c r="G17" s="62">
-        <v>32.75</v>
-      </c>
-      <c r="H17" s="64">
-        <v>65.5</v>
-      </c>
-      <c r="I17" s="65">
-        <v>65.5</v>
-      </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46">
-        <v>3</v>
-      </c>
-      <c r="L17" s="46">
-        <v>3</v>
-      </c>
-      <c r="M17" s="46">
-        <v>3</v>
-      </c>
-      <c r="N17" s="18">
-        <v>65</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" s="20">
-        <v>65.5</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>3</v>
-      </c>
-      <c r="S17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T17" s="20">
-        <v>65.5</v>
-      </c>
-      <c r="U17" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="81">
-        <v>15</v>
-      </c>
-      <c r="C18" s="49">
-        <v>83</v>
-      </c>
-      <c r="D18" s="67">
-        <v>69.5</v>
-      </c>
-      <c r="E18" s="64">
-        <v>83.4</v>
-      </c>
-      <c r="F18" s="64">
-        <v>83.4</v>
-      </c>
-      <c r="G18" s="64">
-        <v>83.4</v>
-      </c>
-      <c r="H18" s="64">
-        <v>83.4</v>
-      </c>
-      <c r="I18" s="70">
-        <v>69.5</v>
-      </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46">
-        <v>3</v>
-      </c>
-      <c r="L18" s="46">
-        <v>3</v>
-      </c>
-      <c r="M18" s="46">
-        <v>3</v>
-      </c>
-      <c r="N18" s="18">
-        <v>35</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P18" s="15">
-        <v>69.5</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>3</v>
-      </c>
-      <c r="S18" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T18" s="15">
-        <v>417.00200000000001</v>
-      </c>
-      <c r="U18" s="17">
-        <v>3</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="81">
-        <v>16</v>
-      </c>
-      <c r="C19" s="49">
-        <v>40</v>
-      </c>
-      <c r="D19" s="63">
-        <v>40.201000000000001</v>
-      </c>
-      <c r="E19" s="64">
-        <v>40.201000000000001</v>
-      </c>
-      <c r="F19" s="64">
-        <v>40.201000000000001</v>
-      </c>
-      <c r="G19" s="64">
-        <v>40.201000000000001</v>
-      </c>
-      <c r="H19" s="64">
-        <v>40.201000000000001</v>
-      </c>
-      <c r="I19" s="65">
-        <v>40.201000000000001</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47">
-        <v>40</v>
-      </c>
-      <c r="L19" s="47">
-        <v>40</v>
-      </c>
-      <c r="M19" s="46">
-        <v>80</v>
-      </c>
-      <c r="N19" s="18">
-        <v>40</v>
-      </c>
-      <c r="O19" s="16">
-        <v>37</v>
-      </c>
-      <c r="P19" s="20">
-        <v>40.201000000000001</v>
-      </c>
-      <c r="Q19" s="22">
-        <v>40</v>
-      </c>
-      <c r="S19" s="24">
-        <v>44.4</v>
-      </c>
-      <c r="T19" s="20">
-        <v>40.201000000000001</v>
-      </c>
-      <c r="U19" s="17">
-        <v>80</v>
-      </c>
-      <c r="V19" s="15"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="81">
-        <v>17</v>
-      </c>
-      <c r="C20" s="49">
-        <v>35</v>
-      </c>
-      <c r="D20" s="63">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E20" s="64">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="F20" s="64">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="G20" s="64">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="H20" s="64">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="I20" s="66">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46">
-        <v>3</v>
-      </c>
-      <c r="L20" s="47">
-        <v>36</v>
-      </c>
-      <c r="M20" s="47">
-        <v>35</v>
-      </c>
-      <c r="N20" s="18">
-        <v>35</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" s="21">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>3</v>
-      </c>
-      <c r="S20" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T20" s="15">
-        <v>368.00299999999999</v>
-      </c>
-      <c r="U20" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="81">
-        <v>18</v>
-      </c>
-      <c r="C21" s="49">
-        <v>33</v>
-      </c>
-      <c r="D21" s="67">
-        <v>20.067</v>
-      </c>
-      <c r="E21" s="62">
-        <v>60.201000000000001</v>
-      </c>
-      <c r="F21" s="62">
-        <v>20.067</v>
-      </c>
-      <c r="G21" s="64">
-        <v>33.445</v>
-      </c>
-      <c r="H21" s="64">
-        <v>33.445</v>
-      </c>
-      <c r="I21" s="66">
-        <v>16.722000000000001</v>
-      </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46">
-        <v>100</v>
-      </c>
-      <c r="L21" s="46">
-        <v>100</v>
-      </c>
-      <c r="M21" s="46">
-        <v>200</v>
-      </c>
-      <c r="N21" s="18">
-        <v>33</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21" s="15">
-        <v>20.067</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>3</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T21" s="20">
-        <v>33.454999999999998</v>
-      </c>
-      <c r="U21" s="22">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="81">
-        <v>19</v>
-      </c>
-      <c r="C22" s="49">
-        <v>53</v>
-      </c>
-      <c r="D22" s="67">
-        <v>529.00199999999995</v>
-      </c>
-      <c r="E22" s="64">
-        <v>52.9</v>
-      </c>
-      <c r="F22" s="62">
-        <v>529.00199999999995</v>
-      </c>
-      <c r="G22" s="64">
-        <v>52.9</v>
-      </c>
-      <c r="H22" s="64">
-        <v>52.9</v>
-      </c>
-      <c r="I22" s="65">
-        <v>52.9</v>
-      </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="46"/>
-      <c r="O22" s="16"/>
-      <c r="Q22" s="17"/>
-      <c r="S22" s="16"/>
-      <c r="U22" s="17"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="82">
-        <v>20</v>
-      </c>
-      <c r="C23" s="50">
+      <c r="C23" s="27">
         <v>44</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="50">
         <v>40.584000000000003</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="43">
         <v>44.273000000000003</v>
       </c>
-      <c r="F23" s="72">
+      <c r="F23" s="43">
         <v>44.273000000000003</v>
       </c>
-      <c r="G23" s="71">
+      <c r="G23" s="42">
         <v>243.501</v>
       </c>
-      <c r="H23" s="72">
+      <c r="H23" s="43">
         <v>44.273000000000003</v>
       </c>
-      <c r="I23" s="77">
+      <c r="I23" s="48">
         <v>44.273000000000003</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="46"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="27"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="27"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J23" s="25"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="D26" s="15"/>
@@ -3698,464 +3215,461 @@
       <c r="F26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-    </row>
-    <row r="27" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+    </row>
+    <row r="27" spans="1:21" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="18"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="16"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C28" s="18"/>
-      <c r="D28" s="33">
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C28" s="16"/>
+      <c r="D28" s="23">
         <v>53.857999999999997</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="23">
         <v>53.857999999999997</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="21">
         <v>53</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="16"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C29" s="18"/>
-      <c r="D29" s="33">
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C29" s="16"/>
+      <c r="D29" s="23">
         <v>91.334999999999994</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="23">
         <v>91.35</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="21">
         <v>91</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="16"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C30" s="18"/>
-      <c r="D30" s="33">
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C30" s="16"/>
+      <c r="D30" s="23">
         <v>51.201000000000001</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="23">
         <v>51.201000000000001</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="21">
         <v>51</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="16"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C31" s="18"/>
-      <c r="D31" s="33">
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C31" s="16"/>
+      <c r="D31" s="23">
         <v>21.715</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="23">
         <v>50.668999999999997</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="21">
         <v>49</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="16"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C32" s="18"/>
-      <c r="D32" s="33">
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C32" s="16"/>
+      <c r="D32" s="23">
         <v>78.501000000000005</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="23">
         <v>157.00200000000001</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="21">
         <v>79</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="16"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C33" s="18"/>
-      <c r="D33" s="33">
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C33" s="16"/>
+      <c r="D33" s="23">
         <v>152.00700000000001</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="23">
         <v>10.858000000000001</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="21">
         <v>11</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="16"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="18"/>
-      <c r="D34" s="33">
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C34" s="16"/>
+      <c r="D34" s="23">
         <v>50.1</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="23">
         <v>25.05</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="21">
         <v>100</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="16"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="18"/>
-      <c r="D35" s="33">
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C35" s="16"/>
+      <c r="D35" s="23">
         <v>57.000999999999998</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="23">
         <v>57.000999999999998</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="21">
         <v>58</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="16"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C36" s="18"/>
-      <c r="D36" s="33">
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C36" s="16"/>
+      <c r="D36" s="23">
         <v>90.111000000000004</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="23">
         <v>91.111000000000004</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="21">
         <v>90</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="16"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-    </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C37" s="18"/>
-      <c r="D37" s="33">
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C37" s="16"/>
+      <c r="D37" s="23">
         <v>18.876000000000001</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="23">
         <v>37.752000000000002</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="21">
         <v>38</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="16"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-    </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C38" s="18"/>
-      <c r="D38" s="85">
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C38" s="16"/>
+      <c r="D38" s="56">
         <v>50.110999999999997</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="23">
         <v>50.110999999999997</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="21">
         <v>53</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="16"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-    </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="18"/>
-      <c r="D39" s="33">
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C39" s="16"/>
+      <c r="D39" s="23">
         <v>120.2</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="23">
         <v>120.2</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="21">
         <v>120</v>
       </c>
-      <c r="H39" s="18"/>
+      <c r="H39" s="16"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C40" s="18"/>
-      <c r="D40" s="33">
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C40" s="16"/>
+      <c r="D40" s="23">
         <v>38.25</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="23">
         <v>38.25</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="21">
         <v>38</v>
       </c>
-      <c r="H40" s="18"/>
+      <c r="H40" s="16"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="18"/>
-      <c r="D41" s="33">
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C41" s="16"/>
+      <c r="D41" s="23">
         <v>65.5</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="23">
         <v>65.5</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="21">
         <v>65</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="16"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-    </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="18"/>
-      <c r="D42" s="33">
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C42" s="16"/>
+      <c r="D42" s="23">
         <v>83.4</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="23">
         <v>83</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="21">
         <v>83</v>
       </c>
-      <c r="H42" s="18"/>
+      <c r="H42" s="16"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="18"/>
-      <c r="D43" s="33">
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C43" s="16"/>
+      <c r="D43" s="23">
         <v>40.201000000000001</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E43" s="23">
         <v>40.201000000000001</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="21">
         <v>40</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="16"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-    </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C44" s="18"/>
-      <c r="D44" s="33">
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C44" s="16"/>
+      <c r="D44" s="23">
         <v>36.799999999999997</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="23">
         <v>36.799999999999997</v>
       </c>
-      <c r="F44" s="31">
+      <c r="F44" s="21">
         <v>35</v>
       </c>
-      <c r="H44" s="18"/>
+      <c r="H44" s="16"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-    </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C45" s="18"/>
-      <c r="D45" s="33">
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C45" s="16"/>
+      <c r="D45" s="23">
         <v>60.201000000000001</v>
       </c>
-      <c r="E45" s="33">
+      <c r="E45" s="23">
         <v>33.445</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="21">
         <v>33</v>
       </c>
-      <c r="H45" s="18"/>
+      <c r="H45" s="16"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-    </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C46" s="18"/>
-      <c r="D46" s="33">
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C46" s="16"/>
+      <c r="D46" s="23">
         <v>52.9</v>
       </c>
-      <c r="E46" s="74">
+      <c r="E46" s="45">
         <v>52.9</v>
       </c>
-      <c r="F46" s="73">
+      <c r="F46" s="44">
         <v>53</v>
       </c>
-      <c r="H46" s="18"/>
+      <c r="H46" s="16"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-    </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D47" s="33">
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D47" s="23">
         <v>44.273000000000003</v>
       </c>
-      <c r="E47" s="74">
+      <c r="E47" s="45">
         <v>44.273000000000003</v>
       </c>
-      <c r="F47" s="73">
+      <c r="F47" s="44">
         <v>44</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:V21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J21">
     <sortCondition ref="A4:A21"/>
   </sortState>
-  <mergeCells count="5">
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="S2:U2"/>
+  <mergeCells count="2">
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4171,27 +3685,27 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="1.453125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="1.42578125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="40" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="G1" s="40" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="65"/>
+      <c r="G1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4214,7 +3728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4240,7 +3754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4266,7 +3780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4295,7 +3809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4321,7 +3835,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4348,7 +3862,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4374,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4400,7 +3914,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4426,7 +3940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -4455,7 +3969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -4481,7 +3995,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -4507,7 +4021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -4533,7 +4047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -4559,7 +4073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -4585,7 +4099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4611,7 +4125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4637,7 +4151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -4663,19 +4177,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
       <c r="E20" s="5"/>
       <c r="G20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="E21" s="5"/>
       <c r="G21" s="4"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
